--- a/CMU-CS 246 FIS - Team 5/Process/5.Test/Test_Case.xlsx
+++ b/CMU-CS 246 FIS - Team 5/Process/5.Test/Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9024" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Test report " sheetId="1" r:id="rId1"/>
@@ -15,13 +15,18 @@
     <sheet name="Modulo function" sheetId="22" r:id="rId6"/>
     <sheet name="Reset function" sheetId="17" r:id="rId7"/>
     <sheet name="Exit function" sheetId="23" r:id="rId8"/>
+    <sheet name="Square function" sheetId="25" r:id="rId9"/>
+    <sheet name="Square root function" sheetId="26" r:id="rId10"/>
+    <sheet name="Backspace function" sheetId="27" r:id="rId11"/>
+    <sheet name="Delete function" sheetId="28" r:id="rId12"/>
+    <sheet name="AC function" sheetId="29" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="185">
   <si>
     <t>Test report</t>
   </si>
@@ -513,6 +518,150 @@
     <t xml:space="preserve">1.  Go on the calculator
 2. Click "Exit" button </t>
   </si>
+  <si>
+    <t>Square function</t>
+  </si>
+  <si>
+    <t>"Square" button</t>
+  </si>
+  <si>
+    <t>1.  Go on the calculator
+2. Enter A as a number, B null and press "x²"</t>
+  </si>
+  <si>
+    <t>A = 5, B = null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Result = 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Go on the calculator
+2.  Enter A null, B as a number and press "x²" </t>
+  </si>
+  <si>
+    <t>A = null, B = 5</t>
+  </si>
+  <si>
+    <t>Displays the error message "Do not enter in text field B"</t>
+  </si>
+  <si>
+    <t>1.  Go on the calculator
+2. Enter A null, B null and press "x²"</t>
+  </si>
+  <si>
+    <t>A = null, B = null</t>
+  </si>
+  <si>
+    <t>Displays the error message "Do not empty text field"</t>
+  </si>
+  <si>
+    <t>1.  Go on the calculator
+2. Enter A = 0+ , B null and press "x²"</t>
+  </si>
+  <si>
+    <t>A = 0+ , B = null</t>
+  </si>
+  <si>
+    <t>Displays the error message "For input string: "0+""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Go on the calculator
+2. Enter A = 0- , B null and press "x²" </t>
+  </si>
+  <si>
+    <t>A = 0- , B = null</t>
+  </si>
+  <si>
+    <t>Displays the error message "For input string: "0-""</t>
+  </si>
+  <si>
+    <t>Square root function</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>1.  Go on the calculator
+2. Enter A as a number, B null and press "√ x"</t>
+  </si>
+  <si>
+    <t>A = 25, B = null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Result = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Go on the calculator
+2. Enter A null, B as a number and press "√ x" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Go on the calculator
+2. Enter A null, B null and press "√ x" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Go on the calculator
+2. Enter A = 0+ , B null and press "√ x" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Go on the calculator
+2. Enter A = 0- , B null and press "√ x" </t>
+  </si>
+  <si>
+    <t>Backspace function</t>
+  </si>
+  <si>
+    <t>BSF</t>
+  </si>
+  <si>
+    <t>"Backsapce" button</t>
+  </si>
+  <si>
+    <t>1.  Go on the calculator
+2. A and B are numbers and press "Backspace"</t>
+  </si>
+  <si>
+    <t>A=123, B = 45</t>
+  </si>
+  <si>
+    <t>Delete the right character</t>
+  </si>
+  <si>
+    <t>1.  Go on the calculator
+2. When A and B are empty and press "Backspace"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays the error message "Text field is empty" </t>
+  </si>
+  <si>
+    <t>Delete function</t>
+  </si>
+  <si>
+    <t>"Delete" button</t>
+  </si>
+  <si>
+    <t>1.  Go on the calculator
+2. A and B are numbers and press "Delete"</t>
+  </si>
+  <si>
+    <t>Delete the left character</t>
+  </si>
+  <si>
+    <t>1.  Go on the calculator
+2. When A and B are empty and press "Delete"</t>
+  </si>
+  <si>
+    <t>AC function</t>
+  </si>
+  <si>
+    <t>ACF</t>
+  </si>
+  <si>
+    <t>"AC" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Go on the calculator
+2. Click "AC" button </t>
+  </si>
 </sst>
 </file>
 
@@ -982,7 +1131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1050,6 +1199,21 @@
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1264,7 +1428,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,34 +1440,34 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1389,7 +1553,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1461,12 +1625,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1481,17 +1648,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1832,14 +1999,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -1890,13 +2057,13 @@
       <c r="Z2" s="14"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -1921,10 +2088,10 @@
       <c r="Z3" s="14"/>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -1951,10 +2118,10 @@
       <c r="Z4" s="14"/>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1981,10 +2148,10 @@
       <c r="Z5" s="14"/>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:26">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="14"/>
@@ -2013,7 +2180,7 @@
     </row>
     <row r="7" ht="16.8" spans="1:26">
       <c r="A7" s="14"/>
-      <c r="B7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -2039,10 +2206,10 @@
       <c r="Z7" s="14"/>
     </row>
     <row r="8" ht="16.8" spans="1:26">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="14"/>
@@ -2070,8 +2237,8 @@
       <c r="Z8" s="14"/>
     </row>
     <row r="9" ht="16.8" spans="1:26">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="14"/>
@@ -2099,8 +2266,8 @@
       <c r="Z9" s="14"/>
     </row>
     <row r="10" ht="16.8" spans="1:26">
-      <c r="A10" s="38"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="14"/>
@@ -2128,8 +2295,8 @@
       <c r="Z10" s="14"/>
     </row>
     <row r="11" ht="16.8" spans="1:26">
-      <c r="A11" s="38"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
@@ -2157,8 +2324,8 @@
       <c r="Z11" s="14"/>
     </row>
     <row r="12" ht="16.8" spans="1:26">
-      <c r="A12" s="39"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="14"/>
@@ -2187,7 +2354,7 @@
     </row>
     <row r="13" ht="16.8" spans="1:26">
       <c r="A13" s="14"/>
-      <c r="B13" s="36"/>
+      <c r="B13" s="37"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -2213,10 +2380,10 @@
       <c r="Z13" s="14"/>
     </row>
     <row r="14" ht="16.8" spans="1:26">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="14"/>
@@ -2244,8 +2411,8 @@
       <c r="Z14" s="14"/>
     </row>
     <row r="15" ht="16.8" spans="1:26">
-      <c r="A15" s="40"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="14"/>
@@ -2273,8 +2440,8 @@
       <c r="Z15" s="14"/>
     </row>
     <row r="16" ht="16.8" spans="1:26">
-      <c r="A16" s="40"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="14"/>
@@ -2302,8 +2469,8 @@
       <c r="Z16" s="14"/>
     </row>
     <row r="17" ht="16.8" spans="1:26">
-      <c r="A17" s="40"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="14"/>
@@ -2385,41 +2552,41 @@
       <c r="Z19" s="14"/>
     </row>
     <row r="20" ht="16.5" customHeight="1" spans="1:25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
     </row>
     <row r="21" ht="16.5" customHeight="1" spans="1:25">
       <c r="A21" s="13">
@@ -2428,13 +2595,13 @@
       <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="45">
         <v>44809</v>
       </c>
       <c r="F21" s="14"/>
@@ -2465,13 +2632,13 @@
       <c r="B22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="45">
         <v>44809</v>
       </c>
       <c r="F22" s="14"/>
@@ -2502,13 +2669,13 @@
       <c r="B23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="45">
         <v>44809</v>
       </c>
       <c r="F23" s="14"/>
@@ -2539,13 +2706,13 @@
       <c r="B24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="45">
         <v>44809</v>
       </c>
       <c r="F24" s="14"/>
@@ -2576,13 +2743,13 @@
       <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="45">
         <v>44809</v>
       </c>
       <c r="F25" s="14"/>
@@ -2613,13 +2780,13 @@
       <c r="B26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="45">
         <v>44809</v>
       </c>
       <c r="F26" s="14"/>
@@ -2650,13 +2817,13 @@
       <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="45">
         <v>44809</v>
       </c>
       <c r="F27" s="14"/>
@@ -2681,8 +2848,8 @@
       <c r="Y27" s="14"/>
     </row>
     <row r="28" ht="16.5" customHeight="1" spans="1:25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -2708,7 +2875,7 @@
       <c r="Y28" s="14"/>
     </row>
     <row r="29" ht="16.2" customHeight="1" spans="1:25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="46" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="14"/>
@@ -30370,12 +30537,2100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="13.1" customWidth="1"/>
+    <col min="4" max="4" width="22.3" customWidth="1"/>
+    <col min="5" max="5" width="19.9" customWidth="1"/>
+    <col min="6" max="6" width="26.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.9" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="19.4" customWidth="1"/>
+    <col min="11" max="11" width="14.7" customWidth="1"/>
+    <col min="12" max="12" width="18.4" customWidth="1"/>
+    <col min="13" max="13" width="16.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" ht="18" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" ht="16.8" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" ht="16.8" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" ht="16.8" spans="1:12">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" ht="16.8" spans="1:12">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13">
+        <f>COUNTIF($J$12:$J$478,"&lt;&gt;")</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="13">
+        <f>COUNTIF($J$12:$J$477,"PASS")</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="13">
+        <f>COUNTIF($J$12:$J$480,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <f>COUNTIF($J$12:$J$480,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f>COUNTIF($J$12:$J$480,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" ht="16.8" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" ht="16.8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13">
+        <f>COUNTIF($L$12:$L$478,"&lt;&gt;")</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="13">
+        <f>COUNTIF($L$12:$L$478,"PASS")</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="13">
+        <f>COUNTIF($L$12:$L$478,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f>COUNTIF($L$12:$L$478,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f>COUNTIF($L$12:$L$478,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" ht="16.8" spans="1:12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="1:13">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" ht="33.6" spans="1:13">
+      <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A12)</f>
+        <v>SRF - 1</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square root function</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45319</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="84" customHeight="1" spans="1:13">
+      <c r="A13" s="18">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A13)</f>
+        <v>SRF - 2</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square root function</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="67.2" spans="1:13">
+      <c r="A14" s="18">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A14)</f>
+        <v>SRF - 3</v>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square root function</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="73" customHeight="1" spans="1:13">
+      <c r="A15" s="18">
+        <v>4</v>
+      </c>
+      <c r="B15" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A15)</f>
+        <v>SRF - 4</v>
+      </c>
+      <c r="C15" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square root function</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="67.2" spans="1:13">
+      <c r="A16" s="18">
+        <v>4</v>
+      </c>
+      <c r="B16" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A16)</f>
+        <v>SRF - 4</v>
+      </c>
+      <c r="C16" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square root function</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="67.2" spans="1:13">
+      <c r="A17" s="18">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A17)</f>
+        <v>SRF - 4</v>
+      </c>
+      <c r="C17" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square root function</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J12 L12">
+    <cfRule type="containsText" dxfId="3" priority="44" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="43" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="42" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="41" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13 L13">
+    <cfRule type="containsText" dxfId="3" priority="40" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="39" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="38" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="37" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="36" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="35" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="34" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="33" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14 L14">
+    <cfRule type="containsText" dxfId="3" priority="32" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="31" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="30" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="29" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="28" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="26" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="25" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15 L15">
+    <cfRule type="containsText" dxfId="3" priority="24" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="23" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="22" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="21" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="20" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="19" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="18" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="17" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16 L16">
+    <cfRule type="containsText" dxfId="3" priority="16" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="15" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="14" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="13" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="12" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="11" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="10" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17 L17">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J12 L12 J13 L13 J14 L14 J15 L15 J16 L16 J17 L17">
+      <formula1>'Test report '!$B$14:$B$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D4">
+      <formula1>'Test report '!$B$8:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="17.1" customWidth="1"/>
+    <col min="3" max="3" width="18.2" customWidth="1"/>
+    <col min="4" max="4" width="20.1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="17.9" customWidth="1"/>
+    <col min="10" max="10" width="17.3" customWidth="1"/>
+    <col min="11" max="11" width="22.6" customWidth="1"/>
+    <col min="12" max="12" width="19.1" customWidth="1"/>
+    <col min="13" max="13" width="17.4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" ht="18" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" ht="16.8" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" ht="16.8" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" ht="16.8" spans="1:12">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" ht="16.8" spans="1:12">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13">
+        <f>COUNTIF($J$12:$J$478,"&lt;&gt;")</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="13">
+        <f>COUNTIF($J$12:$J$477,"PASS")</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="13">
+        <f>COUNTIF($J$12:$J$480,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <f>COUNTIF($J$12:$J$480,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f>COUNTIF($J$12:$J$480,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" ht="16.8" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" ht="16.8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13">
+        <f>COUNTIF($L$12:$L$478,"&lt;&gt;")</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="13">
+        <f>COUNTIF($L$12:$L$478,"PASS")</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="13">
+        <f>COUNTIF($L$12:$L$478,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f>COUNTIF($L$12:$L$478,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f>COUNTIF($L$12:$L$478,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" ht="16.8" spans="1:12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" ht="33.6" spans="1:13">
+      <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A12)</f>
+        <v>BSF - 1</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>$C$1</f>
+        <v>Backspace function</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45319</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="88" customHeight="1" spans="1:13">
+      <c r="A13" s="18">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A13)</f>
+        <v>BSF - 2</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>$C$1</f>
+        <v>Backspace function</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="84" spans="1:13">
+      <c r="A14" s="18">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A14)</f>
+        <v>BSF - 3</v>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>$C$1</f>
+        <v>Backspace function</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="74" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J12 L12">
+    <cfRule type="containsText" dxfId="3" priority="28" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="26" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="25" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13 L13">
+    <cfRule type="containsText" dxfId="3" priority="24" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="23" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="22" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="21" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="20" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="19" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="18" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="17" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14 L14">
+    <cfRule type="containsText" dxfId="3" priority="16" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="15" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="14" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="13" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="12" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="11" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="10" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J12 L12 J13 L13 J14 L14">
+      <formula1>'Test report '!$B$14:$B$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D4">
+      <formula1>'Test report '!$B$8:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.9" customWidth="1"/>
+    <col min="4" max="4" width="24.9" customWidth="1"/>
+    <col min="5" max="5" width="19.8" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1" customWidth="1"/>
+    <col min="8" max="8" width="20.6" customWidth="1"/>
+    <col min="9" max="9" width="18.2" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="14.8" customWidth="1"/>
+    <col min="12" max="12" width="14.2" customWidth="1"/>
+    <col min="13" max="13" width="18.9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" ht="18" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" ht="16.8" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" ht="16.8" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" ht="16.8" spans="1:12">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" ht="16.8" spans="1:12">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13">
+        <f>COUNTIF($J$12:$J$478,"&lt;&gt;")</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="13">
+        <f>COUNTIF($J$12:$J$477,"PASS")</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="13">
+        <f>COUNTIF($J$12:$J$480,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <f>COUNTIF($J$12:$J$480,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f>COUNTIF($J$12:$J$480,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" ht="16.8" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" ht="16.8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13">
+        <f>COUNTIF($L$12:$L$478,"&lt;&gt;")</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="13">
+        <f>COUNTIF($L$12:$L$478,"PASS")</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="13">
+        <f>COUNTIF($L$12:$L$478,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f>COUNTIF($L$12:$L$478,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f>COUNTIF($L$12:$L$478,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" ht="16.8" spans="1:12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" ht="40" customHeight="1" spans="1:13">
+      <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A12)</f>
+        <v>DF - 1</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>$C$1</f>
+        <v>Delete function</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45319</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="88" customHeight="1" spans="1:13">
+      <c r="A13" s="18">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A13)</f>
+        <v>DF - 2</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>$C$1</f>
+        <v>Delete function</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="85" customHeight="1" spans="1:13">
+      <c r="A14" s="18">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A14)</f>
+        <v>DF - 3</v>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>$C$1</f>
+        <v>Delete function</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J12 L12">
+    <cfRule type="containsText" dxfId="3" priority="20" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="19" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="18" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="17" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13 L13">
+    <cfRule type="containsText" dxfId="3" priority="16" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="15" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="14" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="13" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="12" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="11" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="10" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14 L14">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J12 L12 J13 L13 J14 L14">
+      <formula1>'Test report '!$B$14:$B$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D4">
+      <formula1>'Test report '!$B$8:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1" customWidth="1"/>
+    <col min="4" max="4" width="21.3" customWidth="1"/>
+    <col min="5" max="5" width="15.8" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="16.9" customWidth="1"/>
+    <col min="8" max="8" width="20.8" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="16.1" customWidth="1"/>
+    <col min="11" max="11" width="19.7" customWidth="1"/>
+    <col min="12" max="12" width="18.3" customWidth="1"/>
+    <col min="13" max="13" width="25.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" ht="18" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" ht="16.8" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" ht="16.8" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" ht="16.8" spans="1:12">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" ht="16.8" spans="1:12">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13">
+        <f>COUNTIF($J$12:$J$467,"&lt;&gt;")</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="13">
+        <f>COUNTIF($J$12:$J$466,"PASS")</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>COUNTIF($J$12:$J$469,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <f>COUNTIF($J$12:$J$469,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f>COUNTIF($J$12:$J$469,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" ht="16.8" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" ht="16.8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13">
+        <f>COUNTIF($L$12:$L$467,"&lt;&gt;")</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="13">
+        <f>COUNTIF($L$12:$L$467,"PASS")</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <f>COUNTIF($L$12:$L$467,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f>COUNTIF($L$12:$L$467,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f>COUNTIF($L$12:$L$467,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" ht="16.8" spans="1:12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="1" spans="1:13">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" ht="33.6" spans="1:13">
+      <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A12)</f>
+        <v>ACF - 1</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>$C$1</f>
+        <v>AC function</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45319</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="74" customHeight="1" spans="1:13">
+      <c r="A13" s="18">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A13)</f>
+        <v>ACF - 2</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>$C$1</f>
+        <v>AC function</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45319</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J12 L12">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="11" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="10" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13 L13">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J12 L12 J13 L13">
+      <formula1>'Test report '!$B$14:$B$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D4">
+      <formula1>'Test report '!$B$8:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -30487,7 +32742,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="27"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" ht="16.8" spans="1:12">
       <c r="A6" s="11"/>
@@ -34126,8 +36381,8 @@
   <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -35154,7 +37409,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A1" sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -35585,8 +37840,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -36002,4 +38257,687 @@
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="12.3" customWidth="1"/>
+    <col min="4" max="4" width="17.8" customWidth="1"/>
+    <col min="6" max="6" width="27.1833333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.4" customWidth="1"/>
+    <col min="8" max="8" width="18.1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="15.8" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="22.7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.8" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" ht="18" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" ht="16.8" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" ht="16.8" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" ht="16.8" spans="1:12">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" ht="16.8" spans="1:12">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13">
+        <f>COUNTIF($J$12:$J$478,"&lt;&gt;")</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="13">
+        <f>COUNTIF($J$12:$J$477,"PASS")</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="13">
+        <f>COUNTIF($J$12:$J$480,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <f>COUNTIF($J$12:$J$480,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f>COUNTIF($J$12:$J$480,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" ht="16.8" spans="1:12">
+      <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" ht="16.8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13">
+        <f>COUNTIF($L$12:$L$478,"&lt;&gt;")</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="13">
+        <f>COUNTIF($L$12:$L$478,"PASS")</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="13">
+        <f>COUNTIF($L$12:$L$478,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f>COUNTIF($L$12:$L$478,"NOT IMPLEMENTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f>COUNTIF($L$12:$L$478,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" ht="16.8" spans="1:12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="29" customHeight="1" spans="1:13">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" ht="33.6" spans="1:13">
+      <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A12)</f>
+        <v>SF - 1</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square function</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45319</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="80" customHeight="1" spans="1:13">
+      <c r="A13" s="18">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A13)</f>
+        <v>SF - 2</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square function</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="67.2" spans="1:13">
+      <c r="A14" s="18">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A14)</f>
+        <v>SF - 3</v>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square function</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="50.4" spans="1:13">
+      <c r="A15" s="18">
+        <v>4</v>
+      </c>
+      <c r="B15" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A15)</f>
+        <v>SF - 4</v>
+      </c>
+      <c r="C15" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square function</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="50.4" spans="1:13">
+      <c r="A16" s="18">
+        <v>4</v>
+      </c>
+      <c r="B16" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A16)</f>
+        <v>SF - 4</v>
+      </c>
+      <c r="C16" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square function</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="50.4" spans="1:13">
+      <c r="A17" s="18">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>CONCATENATE($C$2," - ",A17)</f>
+        <v>SF - 4</v>
+      </c>
+      <c r="C17" s="19" t="str">
+        <f>$C$1</f>
+        <v>Square function</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="23">
+        <v>45361</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J12 L12">
+    <cfRule type="containsText" dxfId="3" priority="52" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="51" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="50" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="49" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13 L13">
+    <cfRule type="containsText" dxfId="3" priority="48" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="47" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="46" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="45" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="44" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="43" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="42" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="41" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14 L14">
+    <cfRule type="containsText" dxfId="3" priority="40" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="39" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="38" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="37" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="36" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="35" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="34" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="33" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15 L15">
+    <cfRule type="containsText" dxfId="3" priority="32" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="31" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="30" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="29" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="28" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="26" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="25" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16 L16">
+    <cfRule type="containsText" dxfId="3" priority="16" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="15" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="14" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="13" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="12" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="11" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="10" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17 L17">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="Not Implemented">
+      <formula>NOT(ISERROR(SEARCH("Not Implemented",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J12 L12 J13 L13 J14 L14 J15 L15 J16 L16 J17 L17">
+      <formula1>'Test report '!$B$14:$B$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D4">
+      <formula1>'Test report '!$B$8:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/CMU-CS 246 FIS - Team 5/Process/5.Test/Test_Case.xlsx
+++ b/CMU-CS 246 FIS - Team 5/Process/5.Test/Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024" firstSheet="7" activeTab="8"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Test report " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="189">
   <si>
     <t>Test report</t>
   </si>
@@ -97,25 +97,25 @@
     <t>Create Date</t>
   </si>
   <si>
-    <t>AF - X</t>
+    <t>AF - Nguyen Thi Men</t>
   </si>
   <si>
     <t>Addition function</t>
   </si>
   <si>
-    <t>SF - X</t>
+    <t>SF - Nguyen Thi Men</t>
   </si>
   <si>
     <t>Subtraction function</t>
   </si>
   <si>
-    <t>MF - X</t>
+    <t>MF - Nguyen Thi Men</t>
   </si>
   <si>
     <t>Mutiplitation function</t>
   </si>
   <si>
-    <t>DF - X</t>
+    <t>DF - Nguyen Thi Men</t>
   </si>
   <si>
     <t>Divide function</t>
@@ -124,28 +124,43 @@
     <t>Modulo function</t>
   </si>
   <si>
-    <t>RF - X</t>
+    <t>RF - Nguyen Thi Men</t>
   </si>
   <si>
     <t>Reset function</t>
   </si>
   <si>
-    <t>EF - X</t>
+    <t>EF - Nguyen Thi Men</t>
   </si>
   <si>
     <t>Exit function</t>
   </si>
   <si>
+    <t>Square function</t>
+  </si>
+  <si>
+    <t>SRF - Nguyen Thi Men</t>
+  </si>
+  <si>
+    <t>Square root function</t>
+  </si>
+  <si>
+    <t>BSF - Nguyen Thi Men</t>
+  </si>
+  <si>
+    <t>Backsapce function</t>
+  </si>
+  <si>
+    <t>Delete function</t>
+  </si>
+  <si>
+    <t>ACF - Nguyen Thi Men</t>
+  </si>
+  <si>
+    <t>AC function</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t>Note:</t>
     </r>
     <r>
@@ -519,9 +534,6 @@
 2. Click "Exit" button </t>
   </si>
   <si>
-    <t>Square function</t>
-  </si>
-  <si>
     <t>"Square" button</t>
   </si>
   <si>
@@ -573,9 +585,6 @@
   </si>
   <si>
     <t>Displays the error message "For input string: "0-""</t>
-  </si>
-  <si>
-    <t>Square root function</t>
   </si>
   <si>
     <t>SRF</t>
@@ -633,9 +642,6 @@
     <t xml:space="preserve">Displays the error message "Text field is empty" </t>
   </si>
   <si>
-    <t>Delete function</t>
-  </si>
-  <si>
     <t>"Delete" button</t>
   </si>
   <si>
@@ -648,9 +654,6 @@
   <si>
     <t>1.  Go on the calculator
 2. When A and B are empty and press "Delete"</t>
-  </si>
-  <si>
-    <t>AC function</t>
   </si>
   <si>
     <t>ACF</t>
@@ -1985,8 +1988,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1016"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6" defaultRowHeight="15" customHeight="1"/>
@@ -2602,7 +2605,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="45">
-        <v>44809</v>
+        <v>45319</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -2639,7 +2642,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="45">
-        <v>44809</v>
+        <v>45319</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -2676,7 +2679,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="45">
-        <v>44809</v>
+        <v>45319</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2713,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="E24" s="45">
-        <v>44809</v>
+        <v>45319</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -2750,7 +2753,7 @@
         <v>31</v>
       </c>
       <c r="E25" s="45">
-        <v>44809</v>
+        <v>45319</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -2787,7 +2790,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="45">
-        <v>44809</v>
+        <v>45319</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -2824,7 +2827,7 @@
         <v>35</v>
       </c>
       <c r="E27" s="45">
-        <v>44809</v>
+        <v>45319</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -2848,11 +2851,21 @@
       <c r="Y27" s="14"/>
     </row>
     <row r="28" ht="16.5" customHeight="1" spans="1:25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="13">
+        <v>8</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="45">
+        <v>44630</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2875,13 +2888,21 @@
       <c r="Y28" s="14"/>
     </row>
     <row r="29" ht="16.2" customHeight="1" spans="1:25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="13">
+        <v>9</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="45">
+        <v>44630</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -2904,11 +2925,21 @@
       <c r="Y29" s="14"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="13">
+        <v>10</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="45">
+        <v>44630</v>
+      </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -2932,11 +2963,21 @@
       <c r="Z30" s="14"/>
     </row>
     <row r="31" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="13">
+        <v>11</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="45">
+        <v>44630</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -2960,11 +3001,21 @@
       <c r="Z31" s="14"/>
     </row>
     <row r="32" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="13">
+        <v>12</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="45">
+        <v>44630</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -3016,7 +3067,9 @@
       <c r="Z33" s="14"/>
     </row>
     <row r="34" ht="16.5" customHeight="1" spans="1:26">
-      <c r="A34" s="14"/>
+      <c r="A34" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -30563,11 +30616,11 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -30581,11 +30634,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -30599,7 +30652,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -30632,11 +30685,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -30645,7 +30698,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -30685,11 +30738,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -30698,7 +30751,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -30752,43 +30805,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:13">
@@ -30819,15 +30872,15 @@
         <v>Square root function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -30856,17 +30909,17 @@
         <v>Square root function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I13" s="23">
         <v>45361</v>
@@ -30895,17 +30948,17 @@
         <v>Square root function</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I14" s="23">
         <v>45361</v>
@@ -30934,17 +30987,17 @@
         <v>Square root function</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I15" s="23">
         <v>45361</v>
@@ -30973,17 +31026,17 @@
         <v>Square root function</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I16" s="23">
         <v>45361</v>
@@ -31012,17 +31065,17 @@
         <v>Square root function</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I17" s="23">
         <v>45361</v>
@@ -31248,11 +31301,11 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -31266,11 +31319,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -31284,7 +31337,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -31317,11 +31370,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -31330,7 +31383,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -31370,11 +31423,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -31383,7 +31436,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -31437,43 +31490,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -31504,15 +31557,15 @@
         <v>Backspace function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -31541,17 +31594,17 @@
         <v>Backspace function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I13" s="23">
         <v>45361</v>
@@ -31580,17 +31633,17 @@
         <v>Backspace function</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I14" s="23">
         <v>45361</v>
@@ -31739,11 +31792,11 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -31757,11 +31810,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -31775,7 +31828,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -31808,11 +31861,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -31821,7 +31874,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -31861,11 +31914,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -31874,7 +31927,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -31928,43 +31981,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -31995,15 +32048,15 @@
         <v>Delete function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -32032,17 +32085,17 @@
         <v>Delete function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>172</v>
-      </c>
       <c r="H13" s="19" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I13" s="23">
         <v>45361</v>
@@ -32071,17 +32124,17 @@
         <v>Delete function</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I14" s="23">
         <v>45361</v>
@@ -32229,11 +32282,11 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -32247,11 +32300,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -32265,7 +32318,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -32298,11 +32351,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -32311,7 +32364,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -32351,11 +32404,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -32364,7 +32417,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -32418,43 +32471,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:13">
@@ -32485,15 +32538,15 @@
         <v>AC function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -32522,15 +32575,15 @@
         <v>AC function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I13" s="23">
         <v>45319</v>
@@ -32652,7 +32705,7 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -32670,11 +32723,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -32688,7 +32741,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -32721,11 +32774,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -32734,7 +32787,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -32774,11 +32827,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -32787,7 +32840,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -32841,43 +32894,43 @@
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:13">
@@ -32908,15 +32961,15 @@
         <v>Addition function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -32945,17 +32998,17 @@
         <v>Addition function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I13" s="23">
         <v>45319</v>
@@ -32984,17 +33037,17 @@
         <v>Addition function</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I14" s="23">
         <v>45319</v>
@@ -33023,17 +33076,17 @@
         <v>Addition function</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I15" s="23">
         <v>45319</v>
@@ -33062,17 +33115,17 @@
         <v>Addition function</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I16" s="23">
         <v>45319</v>
@@ -33101,27 +33154,27 @@
         <v>Addition function</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I17" s="23">
         <v>45319</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M17" s="26" t="s">
         <v>8</v>
@@ -33140,27 +33193,27 @@
         <v>Addition function</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I18" s="23">
         <v>45319</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M18" s="26" t="s">
         <v>8</v>
@@ -33179,27 +33232,27 @@
         <v>Addition function</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I19" s="23">
         <v>45319</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M19" s="26" t="s">
         <v>8</v>
@@ -33218,27 +33271,27 @@
         <v>Addition function</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I20" s="23">
         <v>45319</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M20" s="26" t="s">
         <v>8</v>
@@ -33257,27 +33310,27 @@
         <v>Addition function</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="20" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I21" s="23">
         <v>45319</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M21" s="26" t="s">
         <v>8</v>
@@ -33574,7 +33627,7 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -33592,11 +33645,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -33610,7 +33663,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -33630,7 +33683,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -33643,11 +33696,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -33656,7 +33709,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -33696,11 +33749,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -33709,7 +33762,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -33763,43 +33816,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -33830,15 +33883,15 @@
         <v>Subtraction function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -33867,17 +33920,17 @@
         <v>Subtraction function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I13" s="23">
         <v>45319</v>
@@ -33906,17 +33959,17 @@
         <v>Subtraction function</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I14" s="23">
         <v>45319</v>
@@ -33945,17 +33998,17 @@
         <v>Subtraction function</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I15" s="23">
         <v>45319</v>
@@ -33984,17 +34037,17 @@
         <v>Subtraction function</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I16" s="23">
         <v>45319</v>
@@ -34023,27 +34076,27 @@
         <v>Subtraction function</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I17" s="23">
         <v>45319</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M17" s="26" t="s">
         <v>8</v>
@@ -34062,27 +34115,27 @@
         <v>Subtraction function</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I18" s="23">
         <v>45319</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M18" s="26" t="s">
         <v>8</v>
@@ -34101,27 +34154,27 @@
         <v>Subtraction function</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I19" s="23">
         <v>45319</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M19" s="26" t="s">
         <v>8</v>
@@ -34140,27 +34193,27 @@
         <v>Subtraction function</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I20" s="23">
         <v>45319</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M20" s="26" t="s">
         <v>8</v>
@@ -34179,27 +34232,27 @@
         <v>Subtraction function</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I21" s="23">
         <v>45319</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M21" s="26" t="s">
         <v>8</v>
@@ -34493,11 +34546,11 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -34511,11 +34564,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -34529,7 +34582,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -34562,11 +34615,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -34575,7 +34628,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -34615,11 +34668,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -34628,7 +34681,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -34682,43 +34735,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -34749,15 +34802,15 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -34786,17 +34839,17 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I13" s="23">
         <v>45319</v>
@@ -34825,17 +34878,17 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I14" s="23">
         <v>45319</v>
@@ -34864,17 +34917,17 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I15" s="23">
         <v>45319</v>
@@ -34903,17 +34956,17 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I16" s="23">
         <v>45319</v>
@@ -34942,27 +34995,27 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I17" s="23">
         <v>45319</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M17" s="26" t="s">
         <v>8</v>
@@ -34981,27 +35034,27 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I18" s="23">
         <v>45319</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M18" s="26" t="s">
         <v>8</v>
@@ -35020,27 +35073,27 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I19" s="23">
         <v>45319</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M19" s="26" t="s">
         <v>8</v>
@@ -35059,27 +35112,27 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I20" s="23">
         <v>45319</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M20" s="26" t="s">
         <v>8</v>
@@ -35098,27 +35151,27 @@
         <v>Multiplitation function</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I21" s="23">
         <v>45319</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M21" s="26" t="s">
         <v>8</v>
@@ -35393,7 +35446,7 @@
   <sheetPr/>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -35415,7 +35468,7 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -35433,11 +35486,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -35451,7 +35504,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -35484,11 +35537,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -35497,7 +35550,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -35538,11 +35591,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -35551,7 +35604,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -35605,43 +35658,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -35672,15 +35725,15 @@
         <v>Divide function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -35709,17 +35762,17 @@
         <v>Divide function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I13" s="23">
         <v>45319</v>
@@ -35748,17 +35801,17 @@
         <v>Divide function</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I14" s="23">
         <v>45319</v>
@@ -35787,17 +35840,17 @@
         <v>Divide function</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I15" s="23">
         <v>45319</v>
@@ -35826,17 +35879,17 @@
         <v>Divide function</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I16" s="23">
         <v>45319</v>
@@ -35865,27 +35918,27 @@
         <v>Divide function</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I17" s="23">
         <v>45319</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M17" s="26" t="s">
         <v>8</v>
@@ -35904,27 +35957,27 @@
         <v>Divide function</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I18" s="23">
         <v>45319</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M18" s="26" t="s">
         <v>8</v>
@@ -35943,27 +35996,27 @@
         <v>Divide function</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I19" s="23">
         <v>45319</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M19" s="26" t="s">
         <v>8</v>
@@ -35982,27 +36035,27 @@
         <v>Divide function</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I20" s="23">
         <v>45319</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M20" s="26" t="s">
         <v>8</v>
@@ -36021,27 +36074,27 @@
         <v>Divide function</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="20" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I21" s="23">
         <v>45319</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M21" s="26" t="s">
         <v>8</v>
@@ -36060,27 +36113,27 @@
         <v>Divide function</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I22" s="23">
         <v>45319</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M22" s="26" t="s">
         <v>8</v>
@@ -36381,7 +36434,7 @@
   <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -36403,11 +36456,11 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -36421,11 +36474,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -36439,7 +36492,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -36472,11 +36525,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -36485,7 +36538,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -36525,11 +36578,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -36538,7 +36591,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -36592,43 +36645,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -36659,15 +36712,15 @@
         <v>Modulo function </v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -36696,17 +36749,17 @@
         <v>Modulo function </v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I13" s="23">
         <v>45319</v>
@@ -36735,17 +36788,17 @@
         <v>Modulo function </v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I14" s="23">
         <v>45319</v>
@@ -36774,17 +36827,17 @@
         <v>Modulo function </v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I15" s="23">
         <v>45319</v>
@@ -36813,17 +36866,17 @@
         <v>Modulo function </v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I16" s="23">
         <v>45319</v>
@@ -36852,27 +36905,27 @@
         <v>Modulo function </v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I17" s="23">
         <v>45319</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M17" s="26" t="s">
         <v>8</v>
@@ -36891,27 +36944,27 @@
         <v>Modulo function </v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I18" s="23">
         <v>45319</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M18" s="26" t="s">
         <v>8</v>
@@ -36930,27 +36983,27 @@
         <v>Modulo function </v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I19" s="23">
         <v>45319</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M19" s="26" t="s">
         <v>8</v>
@@ -36969,27 +37022,27 @@
         <v>Modulo function </v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I20" s="23">
         <v>45319</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M20" s="26" t="s">
         <v>8</v>
@@ -37008,27 +37061,27 @@
         <v>Modulo function </v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="20" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I21" s="23">
         <v>45319</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M21" s="26" t="s">
         <v>8</v>
@@ -37047,27 +37100,27 @@
         <v>Modulo function </v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="20" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I22" s="23">
         <v>45319</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M22" s="26" t="s">
         <v>8</v>
@@ -37075,42 +37128,42 @@
     </row>
     <row r="23" ht="75" customHeight="1" spans="13:13">
       <c r="M23" s="26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" ht="16.8" spans="13:13">
       <c r="M24" s="26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" ht="16.8" spans="13:13">
       <c r="M25" s="26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" ht="159.6" customHeight="1" spans="13:13">
       <c r="M26" s="26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" ht="16.8" spans="13:13">
       <c r="M27" s="26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" ht="16.8" spans="13:13">
       <c r="M28" s="26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" ht="16.8" spans="13:13">
       <c r="M29" s="26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" ht="16.8" spans="13:13">
       <c r="M30" s="26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -37430,7 +37483,7 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -37448,11 +37501,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -37466,7 +37519,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -37499,11 +37552,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -37512,7 +37565,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -37552,11 +37605,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -37565,7 +37618,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -37619,43 +37672,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -37686,15 +37739,15 @@
         <v>Reset function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -37723,15 +37776,15 @@
         <v>Reset function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I13" s="23">
         <v>45319</v>
@@ -37862,7 +37915,7 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -37880,11 +37933,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -37898,7 +37951,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -37931,11 +37984,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -37944,7 +37997,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -37984,11 +38037,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -37997,7 +38050,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -38051,43 +38104,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -38118,15 +38171,15 @@
         <v>Exit function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -38155,15 +38208,15 @@
         <v>Exit function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I13" s="23">
         <v>45319</v>
@@ -38264,7 +38317,7 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -38284,11 +38337,11 @@
   <sheetData>
     <row r="1" ht="16.8" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -38302,11 +38355,11 @@
     </row>
     <row r="2" ht="18" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5"/>
@@ -38320,7 +38373,7 @@
     </row>
     <row r="3" ht="16.8" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -38353,11 +38406,11 @@
     </row>
     <row r="5" ht="16.8" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
@@ -38366,7 +38419,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>16</v>
@@ -38406,11 +38459,11 @@
     </row>
     <row r="7" ht="16.8" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
@@ -38419,7 +38472,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>16</v>
@@ -38473,43 +38526,43 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:13">
@@ -38540,15 +38593,15 @@
         <v>Square function</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" s="23">
         <v>45319</v>
@@ -38577,17 +38630,17 @@
         <v>Square function</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I13" s="23">
         <v>45361</v>
@@ -38616,17 +38669,17 @@
         <v>Square function</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I14" s="23">
         <v>45361</v>
@@ -38655,17 +38708,17 @@
         <v>Square function</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I15" s="23">
         <v>45361</v>
@@ -38694,17 +38747,17 @@
         <v>Square function</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I16" s="23">
         <v>45361</v>
@@ -38733,17 +38786,17 @@
         <v>Square function</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I17" s="23">
         <v>45361</v>
